--- a/data/outputs/management_elsevier/76.xlsx
+++ b/data/outputs/management_elsevier/76.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS122"/>
+  <dimension ref="A1:BU122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +927,12 @@
           <t>2-s2.0-84947612002</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>4179</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1142,12 @@
           <t>2-s2.0-84946484952</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>3503</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1329,6 +1351,12 @@
           <t>2-s2.0-84947582665</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>4640</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1535,6 +1563,12 @@
         <is>
           <t>2-s2.0-84947613573</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>9691</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1739,6 +1773,12 @@
           <t>2-s2.0-84947568907</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>6661</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1950,6 +1990,12 @@
           <t>2-s2.0-84947583361</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3794</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2163,6 +2209,12 @@
           <t>2-s2.0-84947547934</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>17940</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2376,6 +2428,12 @@
           <t>2-s2.0-84947618019</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>14408</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2583,6 +2641,12 @@
           <t>2-s2.0-84946474043</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>7074</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2796,6 +2860,12 @@
           <t>2-s2.0-84946476498</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>4391</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3002,6 +3072,12 @@
         <is>
           <t>2-s2.0-84946483977</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -3208,6 +3284,12 @@
           <t>2-s2.0-84946475944</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>7730</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3411,6 +3493,12 @@
           <t>2-s2.0-84946481473</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>12793</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3623,6 +3711,12 @@
         <is>
           <t>2-s2.0-84946473915</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>3993</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -3829,6 +3923,12 @@
           <t>2-s2.0-84941664207</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>4843</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4038,6 +4138,12 @@
           <t>2-s2.0-84946477369</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>8460</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4252,6 +4358,12 @@
         <is>
           <t>2-s2.0-84946482590</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>3590</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4456,6 +4568,12 @@
           <t>2-s2.0-84946478692</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>4751</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4677,6 +4795,12 @@
           <t>2-s2.0-84946473604</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>6823</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4896,6 +5020,12 @@
           <t>2-s2.0-84941601226</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>9547</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5107,6 +5237,12 @@
           <t>2-s2.0-84941600058</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>7391</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5313,6 +5449,12 @@
         <is>
           <t>2-s2.0-84941600732</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>7745</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -5519,6 +5661,12 @@
           <t>2-s2.0-84941600319</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4104</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5722,6 +5870,12 @@
           <t>2-s2.0-84941600674</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>6621</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5927,6 +6081,12 @@
           <t>2-s2.0-84941598748</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>18060</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6138,6 +6298,12 @@
           <t>2-s2.0-84941599505</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>6976</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6349,6 +6515,12 @@
           <t>2-s2.0-84941600640</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>10171</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6559,6 +6731,12 @@
         <is>
           <t>2-s2.0-84941600529</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>9436</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -6769,6 +6947,12 @@
           <t>2-s2.0-84938593176</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>5874</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6972,6 +7156,12 @@
           <t>2-s2.0-84938748521</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>6365</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7187,6 +7377,12 @@
           <t>2-s2.0-84938740657</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>4336</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7402,6 +7598,12 @@
           <t>2-s2.0-84938750070</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>5450</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7609,6 +7811,12 @@
           <t>2-s2.0-84938742402</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>4070</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7822,6 +8030,12 @@
           <t>2-s2.0-84938750508</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>5582</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8041,6 +8255,12 @@
           <t>2-s2.0-84938747634</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>7876</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8253,6 +8473,12 @@
         <is>
           <t>2-s2.0-84938747351</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>15812</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -8457,6 +8683,12 @@
           <t>2-s2.0-84938746128</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>4876</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8668,6 +8900,12 @@
           <t>2-s2.0-84937147877</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>8394</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8875,6 +9113,12 @@
           <t>2-s2.0-84942827542</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>7641</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9096,6 +9340,12 @@
           <t>2-s2.0-84946164171</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>8532</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9309,6 +9559,12 @@
           <t>2-s2.0-84946180506</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>5868</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9530,6 +9786,12 @@
           <t>2-s2.0-84942817231</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>10546</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9748,6 +10010,12 @@
         <is>
           <t>2-s2.0-84930232893</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>9594</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="45">
@@ -9952,6 +10220,12 @@
           <t>2-s2.0-84942818677</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>6032</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10163,6 +10437,12 @@
           <t>2-s2.0-84928146445</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>14452</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10374,6 +10654,12 @@
           <t>2-s2.0-84942820740</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>8023</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10585,6 +10871,12 @@
           <t>2-s2.0-84942831899</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>9290</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10806,6 +11098,12 @@
           <t>2-s2.0-84931064702</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>14061</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11019,6 +11317,12 @@
           <t>2-s2.0-84931067756</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>7960</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11233,6 +11537,12 @@
         <is>
           <t>2-s2.0-84931051159</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>12865</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -11443,6 +11753,12 @@
           <t>2-s2.0-84931093068</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>12309</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11663,6 +11979,12 @@
         <is>
           <t>2-s2.0-84931028809</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>14428</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -11859,6 +12181,12 @@
           <t>2-s2.0-84931089545</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>7204</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12076,6 +12404,12 @@
           <t>2-s2.0-84931053650</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>13233</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12301,6 +12635,12 @@
           <t>2-s2.0-84931050784</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>35223</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12522,6 +12862,12 @@
           <t>2-s2.0-84931048876</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>11698</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12737,6 +13083,12 @@
           <t>2-s2.0-84931030052</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>5093</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12952,6 +13304,12 @@
           <t>2-s2.0-84931037927</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>27478</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13159,6 +13517,12 @@
           <t>2-s2.0-84929654756</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>5578</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13370,6 +13734,12 @@
           <t>2-s2.0-84929653734</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3077</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13582,6 +13952,12 @@
         <is>
           <t>2-s2.0-84929654903</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>4128</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -13790,6 +14166,12 @@
           <t>2-s2.0-84929654472</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>4351</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14006,6 +14388,12 @@
         <is>
           <t>2-s2.0-84929653890</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>3974</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -14210,6 +14598,12 @@
           <t>2-s2.0-84929656004</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>6303</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14413,6 +14807,12 @@
           <t>2-s2.0-84929656544</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>4541</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14628,6 +15028,12 @@
           <t>2-s2.0-84929656290</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>9462</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14849,6 +15255,12 @@
           <t>2-s2.0-84929653927</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>7659</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15057,6 +15469,12 @@
         <is>
           <t>2-s2.0-84928826755</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>11370</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -15265,6 +15683,12 @@
           <t>2-s2.0-84927652227</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>5203</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15470,6 +15894,12 @@
           <t>2-s2.0-84928825780</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>16088</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15681,6 +16111,12 @@
           <t>2-s2.0-84928828283</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>16992</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15888,6 +16324,12 @@
           <t>2-s2.0-84928825448</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>3886</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16098,6 +16540,12 @@
         <is>
           <t>2-s2.0-84928823917</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>5698</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -16306,6 +16754,12 @@
           <t>2-s2.0-84928829616</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>9115</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16521,6 +16975,12 @@
           <t>2-s2.0-84928828215</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>5823</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16735,6 +17195,12 @@
         <is>
           <t>2-s2.0-84928825591</t>
         </is>
+      </c>
+      <c r="BT77" t="n">
+        <v>11097</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -16939,6 +17405,12 @@
           <t>2-s2.0-84928824916</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>7601</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17164,6 +17636,12 @@
           <t>2-s2.0-84925679510</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>11407</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17375,6 +17853,12 @@
           <t>2-s2.0-84925603211</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>8187</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17586,6 +18070,12 @@
           <t>2-s2.0-84925436817</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>7495</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17807,6 +18297,12 @@
           <t>2-s2.0-84925399085</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>17376</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18015,6 +18511,12 @@
         <is>
           <t>2-s2.0-84925394128</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>7514</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="84">
@@ -18219,6 +18721,12 @@
           <t>2-s2.0-84925428273</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>4484</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18424,6 +18932,12 @@
           <t>2-s2.0-84925583316</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>86020</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>636</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18633,6 +19147,12 @@
           <t>2-s2.0-84925636702</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>5050</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18842,6 +19362,12 @@
           <t>2-s2.0-84925634949</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>8978</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19051,6 +19577,12 @@
           <t>2-s2.0-84925686958</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>8770</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19263,6 +19795,12 @@
         <is>
           <t>2-s2.0-84925682694</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>7675</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -19473,6 +20011,12 @@
           <t>2-s2.0-84924592105</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>8631</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19681,6 +20225,12 @@
         <is>
           <t>2-s2.0-84924532632</t>
         </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>8319</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="92">
@@ -19885,6 +20435,12 @@
           <t>2-s2.0-84924408316</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>8502</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20088,6 +20644,12 @@
           <t>2-s2.0-84924576491</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>4279</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20295,6 +20857,12 @@
           <t>2-s2.0-84924405253</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>6468</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20514,6 +21082,12 @@
           <t>2-s2.0-84924551225</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>4552</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20725,6 +21299,12 @@
           <t>2-s2.0-84924614687</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>4214</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20931,6 +21511,12 @@
         <is>
           <t>2-s2.0-84924416175</t>
         </is>
+      </c>
+      <c r="BT97" t="n">
+        <v>10077</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -21137,6 +21723,12 @@
           <t>2-s2.0-84924592472</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>6372</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21350,6 +21942,12 @@
           <t>2-s2.0-84924581874</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>10523</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21563,6 +22161,12 @@
           <t>2-s2.0-84924386724</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>9809</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21776,6 +22380,12 @@
           <t>2-s2.0-84924542071</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>8715</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21984,6 +22594,12 @@
         <is>
           <t>2-s2.0-84921551927</t>
         </is>
+      </c>
+      <c r="BT102" t="n">
+        <v>6377</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -22190,6 +22806,12 @@
           <t>2-s2.0-84921532402</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>4118</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22393,6 +23015,12 @@
           <t>2-s2.0-84921506670</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>4599</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22602,6 +23230,12 @@
           <t>2-s2.0-84921503613</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>6057</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22815,6 +23449,12 @@
           <t>2-s2.0-84921503772</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>11547</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23023,6 +23663,12 @@
         <is>
           <t>2-s2.0-84921484851</t>
         </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>8192</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="108">
@@ -23229,6 +23875,12 @@
           <t>2-s2.0-84921546087</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>8534</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23434,6 +24086,12 @@
           <t>2-s2.0-84921538251</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>10158</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23639,6 +24297,12 @@
           <t>2-s2.0-84921541424</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>18464</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23847,6 +24511,12 @@
         <is>
           <t>2-s2.0-84921603777</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>14869</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="112">
@@ -24051,6 +24721,12 @@
           <t>2-s2.0-84915745477</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>9582</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24257,6 +24933,12 @@
         <is>
           <t>2-s2.0-84916234469</t>
         </is>
+      </c>
+      <c r="BT113" t="n">
+        <v>5649</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -24461,6 +25143,12 @@
           <t>2-s2.0-84916238058</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>9041</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24667,6 +25355,12 @@
         <is>
           <t>2-s2.0-85027955577</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>4978</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="116">
@@ -24875,6 +25569,12 @@
           <t>2-s2.0-84915749231</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>5135</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25082,6 +25782,12 @@
           <t>2-s2.0-84916203070</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>3781</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25294,6 +26000,12 @@
         <is>
           <t>2-s2.0-84916227523</t>
         </is>
+      </c>
+      <c r="BT118" t="n">
+        <v>17013</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="119">
@@ -25498,6 +26210,12 @@
           <t>2-s2.0-84915747974</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>3507</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25707,6 +26425,12 @@
           <t>2-s2.0-84916243335</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>16958</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25910,6 +26634,12 @@
           <t>2-s2.0-84915756321</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>7692</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26117,6 +26847,12 @@
           <t>2-s2.0-84915745479</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>21223</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
